--- a/parameter_list/Kmedoids+parameterTuning.xlsx
+++ b/parameter_list/Kmedoids+parameterTuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>n_clusters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>init</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>max_iter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>silhouette_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>calinski_harabasz_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>davies_bouldin_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>parameters_combinations</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
         </is>
       </c>
     </row>
@@ -462,15 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.3531438267773461</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>9202.942408559138</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9403239801300892</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>"3,random,100"</t>
         </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -480,51 +514,93 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.3531438267773461</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>9202.942408559138</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9403239801300892</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>"3,random,200"</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_1_eval.xlsx</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3473605365154773</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"3,random,100"</t>
+          <t>random</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3531438267773461</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9202.942408559138</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9403239801300892</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>"3,random,300"</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>eval_datasets/test_3_eval.xlsx</t>
+          <t>eval_datasets/test_2_eval.xlsx</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3473605365154773</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"3,random,200"</t>
+          <t>random</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3191442676270201</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6821.110548040679</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9741397510366555</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>"3,random,100"</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -534,15 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3191614710982662</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"3,random,100"</t>
+          <t>random</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3164361350539214</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6806.690709089491</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9785388671056104</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>"3,random,200"</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -552,51 +642,221 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3191614710982662</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"3,random,200"</t>
+          <t>random</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.318762300729125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6808.966785614843</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9747675584662162</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>"3,random,300"</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>eval_datasets/test_4_eval.xlsx</t>
+          <t>eval_datasets/test_3_eval.xlsx</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2997756622930376</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3473605365154773</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10057.06353694939</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9342918971710779</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>"3,random,100"</t>
         </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3503787921370744</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10122.14601905551</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9316492199462204</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>"3,random,200"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_3_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3473605365154773</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10057.06353694939</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9342918971710779</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>"3,random,300"</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>eval_datasets/test_4_eval.xlsx</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.2997756622930376</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2947414202622447</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7089.959420187719</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.070300270675494</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>"3,random,100"</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3191175704960609</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6829.772616121577</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.00158103781754</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>"3,random,200"</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>eval_datasets/test_4_eval.xlsx</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3183030108675407</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6932.374615717033</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.008816220664122</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>"3,random,300"</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/parameter_list/Kmedoids+parameterTuning.xlsx
+++ b/parameter_list/Kmedoids+parameterTuning.xlsx
@@ -493,13 +493,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3531438267773461</v>
+        <v>0.340389116896278</v>
       </c>
       <c r="F2" t="n">
-        <v>9202.942408559138</v>
+        <v>9098.395773833145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9403239801300892</v>
+        <v>0.9600135682794871</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3531438267773461</v>
+        <v>0.340389116896278</v>
       </c>
       <c r="F3" t="n">
-        <v>9202.942408559138</v>
+        <v>9098.395773833145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9403239801300892</v>
+        <v>0.9600135682794871</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3191442676270201</v>
+        <v>0.318762300729125</v>
       </c>
       <c r="F5" t="n">
-        <v>6821.110548040679</v>
+        <v>6808.966785614843</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9741397510366555</v>
+        <v>0.9747675584662162</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,13 +621,13 @@
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3164361350539214</v>
+        <v>0.318762300729125</v>
       </c>
       <c r="F6" t="n">
-        <v>6806.690709089491</v>
+        <v>6808.966785614843</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9785388671056104</v>
+        <v>0.9747675584662162</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3473605365154773</v>
+        <v>0.3489871424518172</v>
       </c>
       <c r="F8" t="n">
-        <v>10057.06353694939</v>
+        <v>10099.39282934153</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9342918971710779</v>
+        <v>0.9334328865450029</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3503787921370744</v>
+        <v>0.3493699544027775</v>
       </c>
       <c r="F9" t="n">
-        <v>10122.14601905551</v>
+        <v>10088.35534830017</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9316492199462204</v>
+        <v>0.9314250765908697</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>300</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3473605365154773</v>
+        <v>0.3503787921370744</v>
       </c>
       <c r="F10" t="n">
-        <v>10057.06353694939</v>
+        <v>10122.14601905551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9342918971710779</v>
+        <v>0.9316492199462204</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2947414202622447</v>
+        <v>0.2941305049253116</v>
       </c>
       <c r="F11" t="n">
-        <v>7089.959420187719</v>
+        <v>7065.466681600131</v>
       </c>
       <c r="G11" t="n">
-        <v>1.070300270675494</v>
+        <v>1.070991654914425</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -813,13 +813,13 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3191175704960609</v>
+        <v>0.2947414202622447</v>
       </c>
       <c r="F12" t="n">
-        <v>6829.772616121577</v>
+        <v>7089.95942018772</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00158103781754</v>
+        <v>1.070300270675494</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         <v>300</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3183030108675407</v>
+        <v>0.2947414202622447</v>
       </c>
       <c r="F13" t="n">
-        <v>6932.374615717033</v>
+        <v>7089.95942018772</v>
       </c>
       <c r="G13" t="n">
-        <v>1.008816220664122</v>
+        <v>1.070300270675494</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>

--- a/parameter_list/Kmedoids+parameterTuning.xlsx
+++ b/parameter_list/Kmedoids+parameterTuning.xlsx
@@ -592,7 +592,7 @@
         <v>0.318762300729125</v>
       </c>
       <c r="F5" t="n">
-        <v>6808.966785614843</v>
+        <v>6808.966785614844</v>
       </c>
       <c r="G5" t="n">
         <v>0.9747675584662162</v>
@@ -621,13 +621,13 @@
         <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>0.318762300729125</v>
+        <v>0.3164361350539214</v>
       </c>
       <c r="F6" t="n">
-        <v>6808.966785614843</v>
+        <v>6806.690709089491</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9747675584662162</v>
+        <v>0.9785388671056104</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>0.318762300729125</v>
+        <v>0.3164361350539214</v>
       </c>
       <c r="F7" t="n">
-        <v>6808.966785614843</v>
+        <v>6806.690709089491</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9747675584662162</v>
+        <v>0.9785388671056104</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3489871424518172</v>
+        <v>0.3507093748579499</v>
       </c>
       <c r="F8" t="n">
-        <v>10099.39282934153</v>
+        <v>10133.19818124905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9334328865450029</v>
+        <v>0.9312759120348856</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3493699544027775</v>
+        <v>0.3503787921370744</v>
       </c>
       <c r="F9" t="n">
-        <v>10088.35534830017</v>
+        <v>10122.14601905551</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9314250765908697</v>
+        <v>0.9316492199462204</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2941305049253116</v>
+        <v>0.3261521758704161</v>
       </c>
       <c r="F11" t="n">
-        <v>7065.466681600131</v>
+        <v>7001.739582764317</v>
       </c>
       <c r="G11" t="n">
-        <v>1.070991654914425</v>
+        <v>0.9956437061278135</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -813,13 +813,13 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2947414202622447</v>
+        <v>0.3192373208717004</v>
       </c>
       <c r="F12" t="n">
-        <v>7089.95942018772</v>
+        <v>7146.902112064349</v>
       </c>
       <c r="G12" t="n">
-        <v>1.070300270675494</v>
+        <v>1.023107339349664</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         <v>300</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2947414202622447</v>
+        <v>0.2937046245257395</v>
       </c>
       <c r="F13" t="n">
-        <v>7089.95942018772</v>
+        <v>7077.573370703635</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070300270675494</v>
+        <v>1.07241123642434</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>

--- a/parameter_list/Kmedoids+parameterTuning.xlsx
+++ b/parameter_list/Kmedoids+parameterTuning.xlsx
@@ -493,13 +493,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.340389116896278</v>
+        <v>0.3531438267773461</v>
       </c>
       <c r="F2" t="n">
-        <v>9098.395773833145</v>
+        <v>9202.942408559138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9600135682794871</v>
+        <v>0.9403239801300892</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>0.340389116896278</v>
+        <v>0.3450713577390828</v>
       </c>
       <c r="F3" t="n">
-        <v>9098.395773833145</v>
+        <v>9147.978935531029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9600135682794871</v>
+        <v>0.9535205796661906</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,13 +557,13 @@
         <v>300</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3531438267773461</v>
+        <v>0.340389116896278</v>
       </c>
       <c r="F4" t="n">
-        <v>9202.942408559138</v>
+        <v>9098.395773833145</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9403239801300892</v>
+        <v>0.9600135682794871</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.318762300729125</v>
+        <v>0.3191442676270201</v>
       </c>
       <c r="F5" t="n">
-        <v>6808.966785614844</v>
+        <v>6821.110548040679</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9747675584662162</v>
+        <v>0.9741397510366555</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         <v>300</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3164361350539214</v>
+        <v>0.3187063352348054</v>
       </c>
       <c r="F7" t="n">
-        <v>6806.690709089491</v>
+        <v>6838.809923744619</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9785388671056104</v>
+        <v>0.9757311124415388</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3507093748579499</v>
+        <v>0.3493699544027775</v>
       </c>
       <c r="F8" t="n">
-        <v>10133.19818124905</v>
+        <v>10088.35534830017</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9312759120348856</v>
+        <v>0.9314250765908697</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3503787921370744</v>
+        <v>0.3473605365154773</v>
       </c>
       <c r="F9" t="n">
-        <v>10122.14601905551</v>
+        <v>10057.06353694939</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9316492199462204</v>
+        <v>0.9342918971710779</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3261521758704161</v>
+        <v>0.3183030108675407</v>
       </c>
       <c r="F11" t="n">
-        <v>7001.739582764317</v>
+        <v>6932.374615717033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9956437061278135</v>
+        <v>1.008816220664122</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -813,13 +813,13 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3192373208717004</v>
+        <v>0.3183030108675407</v>
       </c>
       <c r="F12" t="n">
-        <v>7146.902112064349</v>
+        <v>6932.374615717034</v>
       </c>
       <c r="G12" t="n">
-        <v>1.023107339349664</v>
+        <v>1.008816220664122</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         <v>300</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2937046245257395</v>
+        <v>0.2966109028830787</v>
       </c>
       <c r="F13" t="n">
-        <v>7077.573370703635</v>
+        <v>7078.246526692958</v>
       </c>
       <c r="G13" t="n">
-        <v>1.07241123642434</v>
+        <v>1.064237495590292</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
